--- a/data/transformed_data_2011.xlsx
+++ b/data/transformed_data_2011.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>555834.7393251779</v>
+        <v>563768.3293251778</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>70030.8</v>
+        <v>60226.488</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>13362.3</v>
+        <v>11491.578</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5101,7 +5101,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>21119.79727112376</v>
+        <v>20867.89807112376</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5437,7 +5437,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>37.24</v>
+        <v>32.0264</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5605,7 +5605,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1836.52</v>
+        <v>1579.4072</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7816,7 +7816,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>20308.34494793741</v>
+        <v>20885.54534793741</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8152,7 +8152,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>12824.28</v>
+        <v>11028.8808</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8320,7 +8320,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8701.42</v>
+        <v>7483.221199999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10559,7 +10559,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6315.698938833571</v>
+        <v>6343.687738833572</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10895,7 +10895,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2108.96</v>
+        <v>1813.7056</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11063,7 +11063,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1909.04</v>
+        <v>1641.7744</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13302,7 +13302,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14285.30821849218</v>
+        <v>14600.86821849218</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13638,7 +13638,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>10441.9</v>
+        <v>8980.034</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13806,7 +13806,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8187.9</v>
+        <v>7041.594</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16045,7 +16045,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>10769.9452</v>
+        <v>10674.5912</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16381,7 +16381,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>652.6799999999999</v>
+        <v>561.3048</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16549,7 +16549,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1333.78</v>
+        <v>1147.0508</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18774,7 +18774,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16020.8855140825</v>
+        <v>15487.8635140825</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19110,7 +19110,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>9255.119999999999</v>
+        <v>7959.4032</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19278,7 +19278,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>13062.42</v>
+        <v>11233.6812</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21517,7 +21517,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9024.053759886199</v>
+        <v>9405.4697598862</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21853,7 +21853,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8909.18</v>
+        <v>7661.8948</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -22021,7 +22021,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6184.78</v>
+        <v>5318.9108</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24260,7 +24260,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>18086.2380512091</v>
+        <v>17184.5596512091</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24596,7 +24596,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5532.099999999999</v>
+        <v>4757.606</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24764,7 +24764,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11972.66</v>
+        <v>10296.4876</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -27003,7 +27003,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>12115.09063499289</v>
+        <v>11662.19343499289</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27339,7 +27339,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1522.92</v>
+        <v>1309.7112</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27507,7 +27507,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4757.9</v>
+        <v>4091.794</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29732,7 +29732,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>7588.601171550496</v>
+        <v>7837.070371550497</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30068,7 +30068,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7685.16</v>
+        <v>6609.237599999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30236,7 +30236,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5910.38</v>
+        <v>5082.9268</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32475,7 +32475,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>56301.62220938833</v>
+        <v>56451.85620938833</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32811,7 +32811,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>4427.64</v>
+        <v>3807.7704</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -32979,7 +32979,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3354.54</v>
+        <v>2884.9044</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35190,7 +35190,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6822.397246657182</v>
+        <v>6689.450446657183</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35526,7 +35526,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>209.72</v>
+        <v>180.3592</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35694,7 +35694,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1159.34</v>
+        <v>997.0323999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37919,7 +37919,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>10072.74724324324</v>
+        <v>9633.158443243243</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38255,7 +38255,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>100.94</v>
+        <v>86.80839999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38423,7 +38423,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3240.86</v>
+        <v>2787.1396</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40648,7 +40648,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3687.342646941678</v>
+        <v>3665.939446941678</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -40984,7 +40984,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3502.52</v>
+        <v>3012.1672</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41152,7 +41152,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3655.4</v>
+        <v>3143.644</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43391,7 +43391,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4450.628374395447</v>
+        <v>4302.863974395447</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43727,7 +43727,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6307.28</v>
+        <v>5424.2608</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43895,7 +43895,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7362.74</v>
+        <v>6331.9564</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46134,7 +46134,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>11231.64427766714</v>
+        <v>10717.41867766714</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46470,7 +46470,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6082.86</v>
+        <v>5231.259599999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46638,7 +46638,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>9755.9</v>
+        <v>8390.073999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48877,7 +48877,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3466.476241251778</v>
+        <v>3485.821441251778</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49213,7 +49213,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6774.74</v>
+        <v>5826.2764</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49381,7 +49381,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6636.559999999999</v>
+        <v>5707.4416</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51606,7 +51606,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9988.307181223328</v>
+        <v>9377.767181223327</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51942,7 +51942,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>737.9399999999999</v>
+        <v>634.6284000000001</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52110,7 +52110,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5098.94</v>
+        <v>4385.0884</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54335,7 +54335,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4627.865431009957</v>
+        <v>4543.487431009958</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54671,7 +54671,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1397.48</v>
+        <v>1201.8328</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54839,7 +54839,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2000.18</v>
+        <v>1720.1548</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57078,7 +57078,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>7562.004194594594</v>
+        <v>7505.066194594593</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57414,7 +57414,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1752.24</v>
+        <v>1506.9264</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57582,7 +57582,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2158.94</v>
+        <v>1856.6884</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59821,7 +59821,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>11125.0739197724</v>
+        <v>11291.2231197724</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60157,7 +60157,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>4150.3</v>
+        <v>3569.258</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60325,7 +60325,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2963.52</v>
+        <v>2548.6272</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62550,7 +62550,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>38162.39529331437</v>
+        <v>40952.22009331437</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62886,7 +62886,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>26337.5</v>
+        <v>22650.25</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63054,7 +63054,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6410.18</v>
+        <v>5512.7548</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65293,7 +65293,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3766.231113513513</v>
+        <v>3708.332713513513</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65629,7 +65629,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2910.6</v>
+        <v>2503.116</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65797,7 +65797,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3324.16</v>
+        <v>2858.7776</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -68022,7 +68022,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>86614.82582759601</v>
+        <v>84912.99702759601</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68358,7 +68358,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>22478.26</v>
+        <v>19331.3036</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68526,7 +68526,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>34634.18</v>
+        <v>29785.3948</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70765,7 +70765,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>43657.89844096728</v>
+        <v>42416.37564096728</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71101,7 +71101,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1143.66</v>
+        <v>983.5476</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71269,7 +71269,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>10011.68</v>
+        <v>8610.0448</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73508,7 +73508,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>30369.51149075391</v>
+        <v>33228.21069075391</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73844,7 +73844,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>26355.14</v>
+        <v>22665.4204</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -74012,7 +74012,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5935.86</v>
+        <v>5104.839599999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76251,7 +76251,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>25942.3469371266</v>
+        <v>27033.36133712659</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76587,7 +76587,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>29796.9</v>
+        <v>25625.334</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76755,7 +76755,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>22003.94</v>
+        <v>18923.3884</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -78994,7 +78994,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>22538.46064786396</v>
+        <v>22678.81624786396</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79330,7 +79330,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5077.38</v>
+        <v>4366.5468</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79498,7 +79498,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4074.84</v>
+        <v>3504.3624</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81737,7 +81737,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>23790.54306571835</v>
+        <v>23511.47826571835</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82073,7 +82073,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2810.64</v>
+        <v>2417.1504</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82241,7 +82241,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4803.96</v>
+        <v>4131.4056</v>
       </c>
     </row>
     <row r="168" spans="1:4">
